--- a/biology/Médecine/Sampson_Handley/Sampson_Handley.xlsx
+++ b/biology/Médecine/Sampson_Handley/Sampson_Handley.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">William Sampson Handley, MD, MS (en), FRCS (en) (12 avril 1872-1962) est un chirurgien anglais qui a contribué à faire avancer la chirurgie du cancer, particulièrement la chirurgie du cancer du sein.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il naît à Loughborough, Leicestershire, en Angleterre. Son père, Thomas Handley, était chimiste. Il fait ses études à l’école secondaire de Loughborough.
 En 1889, il commence à se former comme médecin au Guy's Hospital où il acquiert son doctorat en 1896. Il s’intéresse à la pathologie chirurgicale et devient membre du Collège royal de chirurgie en 1897.
@@ -545,7 +559,9 @@
           <t>Vie privée</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1908, il épousa Muriel Rigby qui lui donna quatre fils et une fille.
 </t>
@@ -576,7 +592,9 @@
           <t>Ouvrages</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Cancer of the Breast and its Operative Treatment, publié en 1906
 The Genesis of Cancer, publié en 1932</t>
